--- a/naivebayesreport.xlsx
+++ b/naivebayesreport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ec778\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6599F3-C757-4D93-B1AC-353CA23C5FD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F6B944-00FA-44C7-9A65-34D5CF4EE890}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C68CC97-66D9-4F1E-82FF-26BAF19AB49B}"/>
   </bookViews>
@@ -707,6 +707,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1338,7 +1369,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2868,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E414342D-81B2-48EF-912C-A508EE99AAD6}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/naivebayesreport.xlsx
+++ b/naivebayesreport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ec778\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F6B944-00FA-44C7-9A65-34D5CF4EE890}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52053E69-075E-463E-AF9F-ED593A320854}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C68CC97-66D9-4F1E-82FF-26BAF19AB49B}"/>
+    <workbookView xWindow="4200" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{5C68CC97-66D9-4F1E-82FF-26BAF19AB49B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Digit</t>
   </si>
@@ -47,13 +47,24 @@
   <si>
     <t>Training Rate</t>
   </si>
+  <si>
+    <t>Runtime (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,12 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,15 +163,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Naive Bayes Avg.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Accuracy</a:t>
+              <a:t>Naive Bayes Avg. Accuracy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -708,7 +712,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1443,6 +1447,648 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Digit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D415-4CBA-B269-7F3D1E972B19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Face</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D415-4CBA-B269-7F3D1E972B19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="907013088"/>
+        <c:axId val="907017024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="907013088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907017024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="907017024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907013088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -1517,6 +2163,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2523,20 +3206,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23809</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>90484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>356235</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>54289</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>120964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2563,16 +3749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23810</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>522922</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>54290</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>284797</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>149540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2592,6 +3778,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>795337</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170497</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A3870B-692F-4BAC-B232-DD2A3F3583B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2897,10 +4119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E414342D-81B2-48EF-912C-A508EE99AAD6}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,7 +4166,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3199,7 +4421,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3453,8 +4675,84 @@
         <v>3.8273866918419365E-2</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1.8</v>
+      </c>
+      <c r="C22">
+        <v>6.5</v>
+      </c>
+      <c r="D22">
+        <v>14.29</v>
+      </c>
+      <c r="E22">
+        <v>25.25</v>
+      </c>
+      <c r="F22">
+        <v>39.39</v>
+      </c>
+      <c r="G22">
+        <v>56.65</v>
+      </c>
+      <c r="H22">
+        <v>83.55</v>
+      </c>
+      <c r="I22">
+        <v>110.65</v>
+      </c>
+      <c r="J22">
+        <v>133.97999999999999</v>
+      </c>
+      <c r="K22">
+        <v>166.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0.17</v>
+      </c>
+      <c r="C23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D23">
+        <v>0.42</v>
+      </c>
+      <c r="E23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F23">
+        <v>0.7</v>
+      </c>
+      <c r="G23">
+        <v>0.85</v>
+      </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
+      <c r="I23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J23">
+        <v>1.3</v>
+      </c>
+      <c r="K23">
+        <v>1.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>